--- a/languageData/Thai English/Excel File No Original Text/UI.xlsx
+++ b/languageData/Thai English/Excel File No Original Text/UI.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5430" uniqueCount="5262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5858" uniqueCount="5665">
   <si>
     <t>UI_20150317_000001</t>
   </si>
@@ -15805,6 +15805,1215 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>UI_20171019_002716</t>
+  </si>
+  <si>
+    <t>UI_20171019_002717</t>
+  </si>
+  <si>
+    <t>UI_20171019_002718</t>
+  </si>
+  <si>
+    <t>UI_20171019_002719</t>
+  </si>
+  <si>
+    <t>UI_20171019_002720</t>
+  </si>
+  <si>
+    <t>UI_20171019_002721</t>
+  </si>
+  <si>
+    <t>UI_20171019_002722</t>
+  </si>
+  <si>
+    <t>UI_20171019_002723</t>
+  </si>
+  <si>
+    <t>UI_20171019_002724</t>
+  </si>
+  <si>
+    <t>UI_20171019_002725</t>
+  </si>
+  <si>
+    <t>UI_20171019_002726</t>
+  </si>
+  <si>
+    <t>UI_20171019_002727</t>
+  </si>
+  <si>
+    <t>UI_20171019_002728</t>
+  </si>
+  <si>
+    <t>UI_20171019_002729</t>
+  </si>
+  <si>
+    <t>UI_20171019_002730</t>
+  </si>
+  <si>
+    <t>UI_20171019_002731</t>
+  </si>
+  <si>
+    <t>UI_20171019_002732</t>
+  </si>
+  <si>
+    <t>UI_20171019_002733</t>
+  </si>
+  <si>
+    <t>UI_20171019_002734</t>
+  </si>
+  <si>
+    <t>UI_20171019_002735</t>
+  </si>
+  <si>
+    <t>UI_20171019_002736</t>
+  </si>
+  <si>
+    <t>UI_20171019_002737</t>
+  </si>
+  <si>
+    <t>UI_20171019_002738</t>
+  </si>
+  <si>
+    <t>UI_20171019_002739</t>
+  </si>
+  <si>
+    <t>UI_20171019_002740</t>
+  </si>
+  <si>
+    <t>UI_20171019_002741</t>
+  </si>
+  <si>
+    <t>UI_20171019_002742</t>
+  </si>
+  <si>
+    <t>UI_20171019_002743</t>
+  </si>
+  <si>
+    <t>UI_20171019_002744</t>
+  </si>
+  <si>
+    <t>UI_20171019_002745</t>
+  </si>
+  <si>
+    <t>UI_20171019_002746</t>
+  </si>
+  <si>
+    <t>UI_20171019_002747</t>
+  </si>
+  <si>
+    <t>UI_20171019_002748</t>
+  </si>
+  <si>
+    <t>UI_20171019_002749</t>
+  </si>
+  <si>
+    <t>UI_20171019_002750</t>
+  </si>
+  <si>
+    <t>UI_20171019_002751</t>
+  </si>
+  <si>
+    <t>UI_20171019_002752</t>
+  </si>
+  <si>
+    <t>UI_20171019_002753</t>
+  </si>
+  <si>
+    <t>UI_20171019_002754</t>
+  </si>
+  <si>
+    <t>UI_20171019_002755</t>
+  </si>
+  <si>
+    <t>UI_20171019_002756</t>
+  </si>
+  <si>
+    <t>UI_20171019_002757</t>
+  </si>
+  <si>
+    <t>UI_20171019_002758</t>
+  </si>
+  <si>
+    <t>UI_20171019_002759</t>
+  </si>
+  <si>
+    <t>UI_20171019_002760</t>
+  </si>
+  <si>
+    <t>SPR +6</t>
+  </si>
+  <si>
+    <t>UI_20171019_002761</t>
+  </si>
+  <si>
+    <t>UI_20171019_002762</t>
+  </si>
+  <si>
+    <t>UI_20171019_002763</t>
+  </si>
+  <si>
+    <t>UI_20171019_002764</t>
+  </si>
+  <si>
+    <t>UI_20171019_002765</t>
+  </si>
+  <si>
+    <t>UI_20171019_002766</t>
+  </si>
+  <si>
+    <t>UI_20171019_002767</t>
+  </si>
+  <si>
+    <t>{@st66b}Point Shop{/}</t>
+  </si>
+  <si>
+    <t>UI_20171019_002768</t>
+  </si>
+  <si>
+    <t>UI_20171019_002769</t>
+  </si>
+  <si>
+    <t>UI_20171019_002770</t>
+  </si>
+  <si>
+    <t>UI_20171019_002771</t>
+  </si>
+  <si>
+    <t>UI_20171019_002772</t>
+  </si>
+  <si>
+    <t>UI_20171019_002773</t>
+  </si>
+  <si>
+    <t>UI_20171019_002774</t>
+  </si>
+  <si>
+    <t>UI_20171019_002775</t>
+  </si>
+  <si>
+    <t>UI_20171019_002776</t>
+  </si>
+  <si>
+    <t>UI_20171019_002777</t>
+  </si>
+  <si>
+    <t>UI_20171019_002778</t>
+  </si>
+  <si>
+    <t>UI_20171019_002779</t>
+  </si>
+  <si>
+    <t>UI_20171019_002780</t>
+  </si>
+  <si>
+    <t>UI_20171019_002781</t>
+  </si>
+  <si>
+    <t>UI_20171019_002782</t>
+  </si>
+  <si>
+    <t>UI_20171019_002783</t>
+  </si>
+  <si>
+    <t>UI_20171019_002784</t>
+  </si>
+  <si>
+    <t>UI_20171019_002785</t>
+  </si>
+  <si>
+    <t>UI_20171019_002786</t>
+  </si>
+  <si>
+    <t>UI_20171019_002787</t>
+  </si>
+  <si>
+    <t>UI_20171019_002788</t>
+  </si>
+  <si>
+    <t>UI_20171019_002789</t>
+  </si>
+  <si>
+    <t>UI_20171019_002790</t>
+  </si>
+  <si>
+    <t>UI_20171019_002791</t>
+  </si>
+  <si>
+    <t>UI_20171019_002792</t>
+  </si>
+  <si>
+    <t>UI_20171019_002793</t>
+  </si>
+  <si>
+    <t>UI_20171019_002794</t>
+  </si>
+  <si>
+    <t>UI_20171019_002795</t>
+  </si>
+  <si>
+    <t>UI_20171019_002796</t>
+  </si>
+  <si>
+    <t>UI_20171019_002797</t>
+  </si>
+  <si>
+    <t>UI_20171019_002798</t>
+  </si>
+  <si>
+    <t>UI_20171019_002799</t>
+  </si>
+  <si>
+    <t>UI_20171019_002800</t>
+  </si>
+  <si>
+    <t>UI_20171019_002801</t>
+  </si>
+  <si>
+    <t>UI_20171019_002802</t>
+  </si>
+  <si>
+    <t>UI_20171019_002803</t>
+  </si>
+  <si>
+    <t>UI_20171019_002804</t>
+  </si>
+  <si>
+    <t>UI_20171019_002805</t>
+  </si>
+  <si>
+    <t>UI_20171019_002806</t>
+  </si>
+  <si>
+    <t>UI_20171019_002807</t>
+  </si>
+  <si>
+    <t>UI_20171019_002808</t>
+  </si>
+  <si>
+    <t>UI_20171019_002809</t>
+  </si>
+  <si>
+    <t>UI_20171019_002810</t>
+  </si>
+  <si>
+    <t>UI_20171019_002811</t>
+  </si>
+  <si>
+    <t>UI_20171019_002812</t>
+  </si>
+  <si>
+    <t>UI_20171019_002813</t>
+  </si>
+  <si>
+    <t>UI_20171019_002814</t>
+  </si>
+  <si>
+    <t>UI_20171019_002815</t>
+  </si>
+  <si>
+    <t>UI_20171019_002816</t>
+  </si>
+  <si>
+    <t>UI_20171019_002817</t>
+  </si>
+  <si>
+    <t>UI_20171019_002818</t>
+  </si>
+  <si>
+    <t>UI_20171019_002819</t>
+  </si>
+  <si>
+    <t>UI_20171019_002820</t>
+  </si>
+  <si>
+    <t>UI_20171019_002821</t>
+  </si>
+  <si>
+    <t>UI_20171019_002822</t>
+  </si>
+  <si>
+    <t>UI_20171019_002823</t>
+  </si>
+  <si>
+    <t>UI_20171019_002824</t>
+  </si>
+  <si>
+    <t>UI_20171019_002825</t>
+  </si>
+  <si>
+    <t>UI_20171019_002826</t>
+  </si>
+  <si>
+    <t>UI_20171019_002827</t>
+  </si>
+  <si>
+    <t>UI_20171019_002828</t>
+  </si>
+  <si>
+    <t>UI_20171019_002829</t>
+  </si>
+  <si>
+    <t>UI_20171019_002830</t>
+  </si>
+  <si>
+    <t>UI_20171019_002831</t>
+  </si>
+  <si>
+    <t>UI_20171019_002832</t>
+  </si>
+  <si>
+    <t>UI_20171019_002833</t>
+  </si>
+  <si>
+    <t>UI_20171019_002834</t>
+  </si>
+  <si>
+    <t>UI_20171019_002835</t>
+  </si>
+  <si>
+    <t>UI_20171019_002836</t>
+  </si>
+  <si>
+    <t>UI_20171019_002837</t>
+  </si>
+  <si>
+    <t>UI_20171019_002838</t>
+  </si>
+  <si>
+    <t>UI_20171019_002839</t>
+  </si>
+  <si>
+    <t>UI_20171019_002840</t>
+  </si>
+  <si>
+    <t>UI_20171019_002841</t>
+  </si>
+  <si>
+    <t>UI_20171019_002842</t>
+  </si>
+  <si>
+    <t>UI_20171019_002843</t>
+  </si>
+  <si>
+    <t>UI_20171019_002844</t>
+  </si>
+  <si>
+    <t>UI_20171019_002845</t>
+  </si>
+  <si>
+    <t>UI_20171019_002846</t>
+  </si>
+  <si>
+    <t>UI_20171019_002847</t>
+  </si>
+  <si>
+    <t>UI_20171019_002848</t>
+  </si>
+  <si>
+    <t>UI_20171019_002849</t>
+  </si>
+  <si>
+    <t>UI_20171019_002850</t>
+  </si>
+  <si>
+    <t>UI_20171019_002851</t>
+  </si>
+  <si>
+    <t>UI_20171019_002852</t>
+  </si>
+  <si>
+    <t>UI_20171019_002853</t>
+  </si>
+  <si>
+    <t>UI_20171019_002854</t>
+  </si>
+  <si>
+    <t>UI_20171019_002855</t>
+  </si>
+  <si>
+    <t>UI_20171019_002856</t>
+  </si>
+  <si>
+    <t>UI_20171019_002857</t>
+  </si>
+  <si>
+    <t>{@st43b}{s18}Guild Emblem{/}</t>
+  </si>
+  <si>
+    <t>UI_20171019_002858</t>
+  </si>
+  <si>
+    <t>UI_20171019_002859</t>
+  </si>
+  <si>
+    <t>UI_20171019_002860</t>
+  </si>
+  <si>
+    <t>UI_20171019_002861</t>
+  </si>
+  <si>
+    <t>UI_20171019_002862</t>
+  </si>
+  <si>
+    <t>UI_20171019_002863</t>
+  </si>
+  <si>
+    <t>UI_20171019_002864</t>
+  </si>
+  <si>
+    <t>UI_20171019_002865</t>
+  </si>
+  <si>
+    <t>UI_20171019_002866</t>
+  </si>
+  <si>
+    <t>UI_20171019_002867</t>
+  </si>
+  <si>
+    <t>UI_20171019_002868</t>
+  </si>
+  <si>
+    <t>UI_20171019_002869</t>
+  </si>
+  <si>
+    <t>UI_20171019_002870</t>
+  </si>
+  <si>
+    <t>UI_20171019_002871</t>
+  </si>
+  <si>
+    <t>UI_20171019_002872</t>
+  </si>
+  <si>
+    <t>UI_20171019_002873</t>
+  </si>
+  <si>
+    <t>UI_20171019_002874</t>
+  </si>
+  <si>
+    <t>UI_20171019_002875</t>
+  </si>
+  <si>
+    <t>UI_20171019_002876</t>
+  </si>
+  <si>
+    <t>UI_20171019_002877</t>
+  </si>
+  <si>
+    <t>UI_20171019_002878</t>
+  </si>
+  <si>
+    <t>UI_20171019_002879</t>
+  </si>
+  <si>
+    <t>UI_20171019_002880</t>
+  </si>
+  <si>
+    <t>UI_20171019_002881</t>
+  </si>
+  <si>
+    <t>UI_20171019_002882</t>
+  </si>
+  <si>
+    <t>UI_20171019_002883</t>
+  </si>
+  <si>
+    <t>UI_20171019_002884</t>
+  </si>
+  <si>
+    <t>UI_20171019_002885</t>
+  </si>
+  <si>
+    <t>UI_20171019_002886</t>
+  </si>
+  <si>
+    <t>UI_20171019_002887</t>
+  </si>
+  <si>
+    <t>UI_20171019_002888</t>
+  </si>
+  <si>
+    <t>UI_20171019_002889</t>
+  </si>
+  <si>
+    <t>UI_20171019_002890</t>
+  </si>
+  <si>
+    <t>UI_20171019_002891</t>
+  </si>
+  <si>
+    <t>UI_20171019_002892</t>
+  </si>
+  <si>
+    <t>UI_20171019_002893</t>
+  </si>
+  <si>
+    <t>{@st66b}Damage Font Scale (%s){/}</t>
+  </si>
+  <si>
+    <t>UI_20171019_002894</t>
+  </si>
+  <si>
+    <t>UI_20171019_002895</t>
+  </si>
+  <si>
+    <t>UI_20171019_002896</t>
+  </si>
+  <si>
+    <t>UI_20171019_002897</t>
+  </si>
+  <si>
+    <t>UI_20171019_002898</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>UI_20171019_002899</t>
+  </si>
+  <si>
+    <t>UI_20171019_002900</t>
+  </si>
+  <si>
+    <t>UI_20171019_002901</t>
+  </si>
+  <si>
+    <t>UI_20171019_002902</t>
+  </si>
+  <si>
+    <t>UI_20171019_002903</t>
+  </si>
+  <si>
+    <t>UI_20171019_002904</t>
+  </si>
+  <si>
+    <t>UI_20171019_002905</t>
+  </si>
+  <si>
+    <t>UI_20171019_002906</t>
+  </si>
+  <si>
+    <t>UI_20171019_002907</t>
+  </si>
+  <si>
+    <t>Star Star Star</t>
+  </si>
+  <si>
+    <t>UI_20171019_002908</t>
+  </si>
+  <si>
+    <t>UI_20171019_002909</t>
+  </si>
+  <si>
+    <t>UI_20171019_002910</t>
+  </si>
+  <si>
+    <t>UI_20171019_002911</t>
+  </si>
+  <si>
+    <t>UI_20171019_002912</t>
+  </si>
+  <si>
+    <t>UI_20171019_002913</t>
+  </si>
+  <si>
+    <t>UI_20171019_002914</t>
+  </si>
+  <si>
+    <t>UI_20171019_002915</t>
+  </si>
+  <si>
+    <t>UI_20171019_002916</t>
+  </si>
+  <si>
+    <t>UI_20171019_002917</t>
+  </si>
+  <si>
+    <t>UI_20171019_002918</t>
+  </si>
+  <si>
+    <t>UI_20171019_002919</t>
+  </si>
+  <si>
+    <t>UI_20171019_002920</t>
+  </si>
+  <si>
+    <t>What What</t>
+  </si>
+  <si>
+    <t>UI_20171019_002921</t>
+  </si>
+  <si>
+    <t>UI_20171019_002922</t>
+  </si>
+  <si>
+    <t>UI_20171031_002923</t>
+  </si>
+  <si>
+    <t>ปิด UI เข้าร่วม</t>
+  </si>
+  <si>
+    <t>UI_20171031_002924</t>
+  </si>
+  <si>
+    <t>ตรวจสอบระยะเวลาการเข้าร่วม</t>
+  </si>
+  <si>
+    <t>UI_20171031_002925</t>
+  </si>
+  <si>
+    <t>* รางวัลจะถูกมอบให้ทาง Inventory โดยอัตโนมัติเมื่อออนไลน์ในวันดังกล่าว {nl}* ถ้าเลยวันดังกล่าวไปแล้ว จะไม่ได้รับรางวัลของวันนั้น{nl}* ไอเทมรางวัล (สามารถแชร์ไปยังคลังทีม/สามารถเคลื่อนย้ายไปยังคลังทีม/สามารถแชร์ภายในทีม){nl}</t>
+  </si>
+  <si>
+    <t>UI_20171031_002926</t>
+  </si>
+  <si>
+    <t>UI_20171031_002927</t>
+  </si>
+  <si>
+    <t>เปลี่ยนอาชีพดังกล่าวกลับไปก่อนหน้านี้</t>
+  </si>
+  <si>
+    <t>UI_20171031_002928</t>
+  </si>
+  <si>
+    <t>ชื่อแผนที่</t>
+  </si>
+  <si>
+    <t>UI_20171031_002929</t>
+  </si>
+  <si>
+    <t>ใช้ {@st42b}</t>
+  </si>
+  <si>
+    <t>{@st43b}Adventure Journal</t>
+  </si>
+  <si>
+    <t>{@st59}Adventure Journal Ranking</t>
+  </si>
+  <si>
+    <t>{@st59}Team Battle League Ranking{/}</t>
+  </si>
+  <si>
+    <t>{@st59}Uphill Defense Ranking{/}</t>
+  </si>
+  <si>
+    <t>{@st59}Main{/}</t>
+  </si>
+  <si>
+    <t>{@st59}Monsters{/}</t>
+  </si>
+  <si>
+    <t>{@st59}Items{/}</t>
+  </si>
+  <si>
+    <t>{@st59}Crafting{/}</t>
+  </si>
+  <si>
+    <t>{@st59}Life{/}</t>
+  </si>
+  <si>
+    <t>{@st59}Dungeons{/}</t>
+  </si>
+  <si>
+    <t>{@st59}Growth{/}</t>
+  </si>
+  <si>
+    <t>{@st59}Exploration{/}</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>{img test_cooltime 24 24}Points reset on the 1st day of every month.{/}</t>
+  </si>
+  <si>
+    <t>{@st41b}Top Ranks</t>
+  </si>
+  <si>
+    <t>{@st41b}My Nearest Ranks</t>
+  </si>
+  <si>
+    <t>{@st43b}Total %s Points</t>
+  </si>
+  <si>
+    <t>{@st66b}More Monsters</t>
+  </si>
+  <si>
+    <t>{@st66d_y}%s Points / {/}{@st42}%s Points{/}</t>
+  </si>
+  <si>
+    <t>Defeated</t>
+  </si>
+  <si>
+    <t>{@st41b}Area</t>
+  </si>
+  <si>
+    <t>Descpription</t>
+  </si>
+  <si>
+    <t>Subcategory</t>
+  </si>
+  <si>
+    <t>{@st66b}More Items</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>Total Sales</t>
+  </si>
+  <si>
+    <t>{@st66b}More</t>
+  </si>
+  <si>
+    <t>Name A-Z</t>
+  </si>
+  <si>
+    <t>Name Z-A</t>
+  </si>
+  <si>
+    <t>%s Fishes Caught</t>
+  </si>
+  <si>
+    <t>Clears</t>
+  </si>
+  <si>
+    <t>%s</t>
+  </si>
+  <si>
+    <t>Class Points %s</t>
+  </si>
+  <si>
+    <t>Team Level %s</t>
+  </si>
+  <si>
+    <t>Exploration</t>
+  </si>
+  <si>
+    <t>%s % Explored</t>
+  </si>
+  <si>
+    <t>- Recommended level</t>
+  </si>
+  <si>
+    <t>- Exploration</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Acquisition Points %s</t>
+  </si>
+  <si>
+    <t>Adventure Journal Ranking</t>
+  </si>
+  <si>
+    <t>{@st66d_y}%s{/} Battles {@st66d_y}%s{/} Wins {@st66d_y}%s{/} Defeats</t>
+  </si>
+  <si>
+    <t>{@st59}Participation{/}</t>
+  </si>
+  <si>
+    <t>Uphill Defense Ranking</t>
+  </si>
+  <si>
+    <t>Total Points</t>
+  </si>
+  <si>
+    <t>{@st66b}Map Exploration</t>
+  </si>
+  <si>
+    <t>{@st66b}Quests/Achievements</t>
+  </si>
+  <si>
+    <t>{@st66b}Collection</t>
+  </si>
+  <si>
+    <t>{@st66b}Personal Shops</t>
+  </si>
+  <si>
+    <t>{@st66b}Fishing</t>
+  </si>
+  <si>
+    <t>{@st66b}Spectate{/}</t>
+  </si>
+  <si>
+    <t>Area: %s</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>{@st42}{s18}My Character List</t>
+  </si>
+  <si>
+    <t>[%s] Reward List</t>
+  </si>
+  <si>
+    <t>Retrieve All</t>
+  </si>
+  <si>
+    <t>Territory Wars Alert</t>
+  </si>
+  <si>
+    <t>Spot Last Seized By</t>
+  </si>
+  <si>
+    <t>Current Points</t>
+  </si>
+  <si>
+    <t>My Guild</t>
+  </si>
+  <si>
+    <t>{@st66d}Return to a city in {s20}%s seconds.{/}</t>
+  </si>
+  <si>
+    <t>{@st66d}Return to city{/}</t>
+  </si>
+  <si>
+    <t>{@st43}{s20}Protecting Guild{/}</t>
+  </si>
+  <si>
+    <t>Protecting Guild</t>
+  </si>
+  <si>
+    <t>{@st41_red}Removable Effect{/}</t>
+  </si>
+  <si>
+    <t>{@st43}Exchange Artifact{/}</t>
+  </si>
+  <si>
+    <t>{@st59}Close Exchange Artifact{/}</t>
+  </si>
+  <si>
+    <t>{@st41b}Exchange</t>
+  </si>
+  <si>
+    <t>{@st43b}{s22}Stage %s Tackle Box{/}</t>
+  </si>
+  <si>
+    <t>{@st66d_y}{s22}Stage %s Tackle Box{/}</t>
+  </si>
+  <si>
+    <t>Max. %s slots{nl}Fished %s time(s)</t>
+  </si>
+  <si>
+    <t>{img icon_item_tpBox_30 30 30}{@st43b}{s18}%s TP Upgrade{/}</t>
+  </si>
+  <si>
+    <t>{@st43}Image %s{/}</t>
+  </si>
+  <si>
+    <t>{@st59b}Enter image{nl}{@st59s}- Browse for an image and register it{nl}- Refresh to update the list, then select the image</t>
+  </si>
+  <si>
+    <t>{@st66b}{s18}Open folder</t>
+  </si>
+  <si>
+    <t>Open the folder containing the image.</t>
+  </si>
+  <si>
+    <t>Update the list.</t>
+  </si>
+  <si>
+    <t>{@st41b}{nl}Confirm</t>
+  </si>
+  <si>
+    <t>{@st41b}{nl}Cancel</t>
+  </si>
+  <si>
+    <t>{@st43}Guild</t>
+  </si>
+  <si>
+    <t>Guild Master</t>
+  </si>
+  <si>
+    <t>Founded</t>
+  </si>
+  <si>
+    <t>Members</t>
+  </si>
+  <si>
+    <t>{@st66}News</t>
+  </si>
+  <si>
+    <t>{@st66}Notes</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Member {img %s 13 13}</t>
+  </si>
+  <si>
+    <t>Level {img %s 13 13}</t>
+  </si>
+  <si>
+    <t>Position {img %s 13 13}</t>
+  </si>
+  <si>
+    <t>Contribution</t>
+  </si>
+  <si>
+    <t>{@st66b}{s18}Authorities{/}</t>
+  </si>
+  <si>
+    <t>%s online      %s offline</t>
+  </si>
+  <si>
+    <t>Show online</t>
+  </si>
+  <si>
+    <t>{@st66d_y}{s18}Guild Level{/}</t>
+  </si>
+  <si>
+    <t>{@st43b}{s18}Guild Tower(%s/1){/}</t>
+  </si>
+  <si>
+    <t>Guild benefits updated to current Templar's Guild Tower level.</t>
+  </si>
+  <si>
+    <t>Attribute Points: %s</t>
+  </si>
+  <si>
+    <t>ⓘ Guild upgrading is only available inside the Guild Tower.</t>
+  </si>
+  <si>
+    <t>{@st43b}{s18}Guild Items{/}</t>
+  </si>
+  <si>
+    <t>{@st43b}{s18}Guild Funds{/}</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>{img icon_item_silver 24 24} Amount</t>
+  </si>
+  <si>
+    <t>{img in_arrow 20 20}{@st66b}{s18}Deposit  {/}</t>
+  </si>
+  <si>
+    <t>ⓘ This item can be distributed to guild members by the guild master, after which it becomes bound to each character that receives it.{nl}ⓘ To receive the item, check your lodge Message Box.</t>
+  </si>
+  <si>
+    <t>{@st43b}{s18}Guild Wars{/}</t>
+  </si>
+  <si>
+    <t>Neutral Status Canceled Alert</t>
+  </si>
+  <si>
+    <t>The alert is displayed starting 1 day before neutrality is canceled.{nl}Only the Guild Master can change this option.</t>
+  </si>
+  <si>
+    <t>ⓘ Guild Towers destroyed in wars can be rebuilt after 24 hours.{nl}ⓘ Declarations of war can be done at the opponent guild's tower.{nl}ⓘ The war starts 1 hour after it has been declared.{nl}ⓘ After declaring war, your guild cannot be disbanded until after the war ends.{nl}ⓘ You cannot declare a war without a Guild Tower.</t>
+  </si>
+  <si>
+    <t>{@st43b}{s18}Guild Territory Wars{/}</t>
+  </si>
+  <si>
+    <t>What are Territory Wars</t>
+  </si>
+  <si>
+    <t>Not Participating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ⓘ Guilds with Spots seized are automatically participating.{nl}ⓘ After setting the status to  </t>
+  </si>
+  <si>
+    <t>, you cannot transfer the position of Guild Master.{nl}โ“ Only a Templar Guild Master can change the participation status.{nl}โ“ This option can only be changed until 5 minutes before the Territory Wars begin, or after 1 minute after they end.{nl}โ“ The participation status can be changed regardless of whether your guild has a tower or not.</t>
+  </si>
+  <si>
+    <t>{@st43b}{s18}Spot Benefits{/}</t>
+  </si>
+  <si>
+    <t>Spot Areas</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Silver Reward (%)</t>
+  </si>
+  <si>
+    <t>Spot Rewards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ⓘ Spot rewards are %s every week.{nl}ⓘ The rewards include  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> of your Market fees of the previous week.{nl}โ“ Spot rewards are delivered as Copper Bars.{nl}โ“ The maximum possible amount rewarded is %s hundred million Silver.{nl}โ“ Please check our official website for more information.</t>
+  </si>
+  <si>
+    <t>Tuesday 06:00</t>
+  </si>
+  <si>
+    <t>{@st41b}{nl}Image %s{/}</t>
+  </si>
+  <si>
+    <t>ⓘ The first emblem can be registered for free.{nl}ⓘ Changing the emblem costs %s0,000 Silver.{nl}ⓘ Your image must be sized %s and in %s format.{nl}ⓘ The file name must be composed of only alphanumeric characters.{nl}ⓘ The use of problematic images can result in restrictions.</t>
+  </si>
+  <si>
+    <t>{@st43b}{s18}Hangout Entry Settings{/}</t>
+  </si>
+  <si>
+    <t>Allow Outsiders</t>
+  </si>
+  <si>
+    <t>{@st43b}{s18}Guild News{/}</t>
+  </si>
+  <si>
+    <t>{@st66}{s18}Register{/}</t>
+  </si>
+  <si>
+    <t>{@st43b}{s18}Guild Notes{/}</t>
+  </si>
+  <si>
+    <t>{@st43b}{s18}One-line Message Board{/}</t>
+  </si>
+  <si>
+    <t>Max. 25 characters allowed.</t>
+  </si>
+  <si>
+    <t>ⓘ You can post on the One-line Message Board 3 times a day.</t>
+  </si>
+  <si>
+    <t>Guild Info</t>
+  </si>
+  <si>
+    <t>Wars</t>
+  </si>
+  <si>
+    <t>Territory Wars</t>
+  </si>
+  <si>
+    <t>{@st43}Send Items</t>
+  </si>
+  <si>
+    <t>Sending</t>
+  </si>
+  <si>
+    <t>Team Name {img %s 13 13}</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>{@st41b}{nl}Send</t>
+  </si>
+  <si>
+    <t>{@st42b}{s20}Continue Shopping</t>
+  </si>
+  <si>
+    <t>{@st42b}{s20}Close</t>
+  </si>
+  <si>
+    <t>{@st66}Close</t>
+  </si>
+  <si>
+    <t>{img monsterbtn_image 29 28}{@st66b}{s16}Monster Cards{/}</t>
+  </si>
+  <si>
+    <t>{@st59}Open Monster Cards Window{/}</t>
+  </si>
+  <si>
+    <t>{@st43}{s22}Leticia's Secret Cube{/}</t>
+  </si>
+  <si>
+    <t>Cube Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{nl}{img %s 40 40}{@st42b}{s20}Cubes  </t>
+  </si>
+  <si>
+    <t>ⓘ See the official website and item descriptions for more info.</t>
+  </si>
+  <si>
+    <t>{@st43}Equip Monster Cards{/}</t>
+  </si>
+  <si>
+    <t>{@st59}Close Equip Monster Cards{/}</t>
+  </si>
+  <si>
+    <t>{@st59}Only Templar Guild Master in Team{/}</t>
+  </si>
+  <si>
+    <t>{@st66b}Respawn in nearby city (30 seconds){/}</t>
+  </si>
+  <si>
+    <t>{@st66b}Show Party Name{/}</t>
+  </si>
+  <si>
+    <t>{@st66b}Recipe Material Obtained{/}</t>
+  </si>
+  <si>
+    <t>{@st43}PvP Settings{/}</t>
+  </si>
+  <si>
+    <t>{@st66b}Show Tile Range{/}</t>
+  </si>
+  <si>
+    <t>{@st66b}Use Attack Effects</t>
+  </si>
+  <si>
+    <t>{@st66b}Your Team name represents all your characters and is used in trading, Guilds, chat, etc.{nl}Changing your Team name consumes 150 TP, so choose it carefully.{/}</t>
+  </si>
+  <si>
+    <t>{@st41}%s Points</t>
+  </si>
+  <si>
+    <t>Qtt.</t>
+  </si>
+  <si>
+    <t>{@st66b}Rank %s</t>
+  </si>
+  <si>
+    <t>{@st66b}%s Points</t>
+  </si>
+  <si>
+    <t>Maps</t>
+  </si>
+  <si>
+    <t>Item Type</t>
+  </si>
+  <si>
+    <t>Latest Acquisition</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Fish Name</t>
+  </si>
+  <si>
+    <t>Total %s Times Cleared</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Enter the name of the character or team.</t>
+  </si>
+  <si>
+    <t>Quest</t>
+  </si>
+  <si>
+    <t>Reward</t>
+  </si>
+  <si>
+    <t>Additional +1 reward from Saalus Missions</t>
+  </si>
+  <si>
+    <t>{img icon_item_tospoint 24 24}{@st41b}Consume 0 TP{nl}Unequip card without the loss of a star{/}</t>
+  </si>
+  <si>
+    <t>ⓘ Collect your rewards at the Wings of Vaivora.</t>
   </si>
 </sst>
 </file>
@@ -16306,8 +17515,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -16629,16 +17839,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2715"/>
+  <dimension ref="A1:B2929"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A2811" workbookViewId="0">
+      <selection activeCell="B2785" sqref="B2785"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -38361,6 +39571,1718 @@
         <v>2987</v>
       </c>
     </row>
+    <row r="2716" spans="1:2">
+      <c r="A2716" t="s">
+        <v>5262</v>
+      </c>
+      <c r="B2716" t="s">
+        <v>5489</v>
+      </c>
+    </row>
+    <row r="2717" spans="1:2">
+      <c r="A2717" t="s">
+        <v>5263</v>
+      </c>
+      <c r="B2717" t="s">
+        <v>5490</v>
+      </c>
+    </row>
+    <row r="2718" spans="1:2">
+      <c r="A2718" t="s">
+        <v>5264</v>
+      </c>
+      <c r="B2718" t="s">
+        <v>5491</v>
+      </c>
+    </row>
+    <row r="2719" spans="1:2">
+      <c r="A2719" t="s">
+        <v>5265</v>
+      </c>
+      <c r="B2719" t="s">
+        <v>5492</v>
+      </c>
+    </row>
+    <row r="2720" spans="1:2">
+      <c r="A2720" t="s">
+        <v>5266</v>
+      </c>
+      <c r="B2720" t="s">
+        <v>5493</v>
+      </c>
+    </row>
+    <row r="2721" spans="1:2">
+      <c r="A2721" t="s">
+        <v>5267</v>
+      </c>
+      <c r="B2721" t="s">
+        <v>5494</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:2">
+      <c r="A2722" t="s">
+        <v>5268</v>
+      </c>
+      <c r="B2722" t="s">
+        <v>5495</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:2">
+      <c r="A2723" t="s">
+        <v>5269</v>
+      </c>
+      <c r="B2723" t="s">
+        <v>5496</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:2">
+      <c r="A2724" t="s">
+        <v>5270</v>
+      </c>
+      <c r="B2724" t="s">
+        <v>5497</v>
+      </c>
+    </row>
+    <row r="2725" spans="1:2">
+      <c r="A2725" t="s">
+        <v>5271</v>
+      </c>
+      <c r="B2725" t="s">
+        <v>5498</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:2">
+      <c r="A2726" t="s">
+        <v>5272</v>
+      </c>
+      <c r="B2726" t="s">
+        <v>5499</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:2">
+      <c r="A2727" t="s">
+        <v>5273</v>
+      </c>
+      <c r="B2727" t="s">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:2">
+      <c r="A2728" t="s">
+        <v>5274</v>
+      </c>
+      <c r="B2728" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:2">
+      <c r="A2729" t="s">
+        <v>5275</v>
+      </c>
+      <c r="B2729" t="s">
+        <v>5501</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:2">
+      <c r="A2730" t="s">
+        <v>5276</v>
+      </c>
+      <c r="B2730" t="s">
+        <v>5502</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:2">
+      <c r="A2731" t="s">
+        <v>5277</v>
+      </c>
+      <c r="B2731" t="s">
+        <v>5503</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:2">
+      <c r="A2732" t="s">
+        <v>5278</v>
+      </c>
+      <c r="B2732" t="s">
+        <v>5504</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:2">
+      <c r="A2733" t="s">
+        <v>5279</v>
+      </c>
+      <c r="B2733" t="s">
+        <v>5505</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:2">
+      <c r="A2734" t="s">
+        <v>5280</v>
+      </c>
+      <c r="B2734" t="s">
+        <v>5506</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:2">
+      <c r="A2735" t="s">
+        <v>5281</v>
+      </c>
+      <c r="B2735" t="s">
+        <v>5507</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:2">
+      <c r="A2736" t="s">
+        <v>5282</v>
+      </c>
+      <c r="B2736" t="s">
+        <v>5508</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:2">
+      <c r="A2737" t="s">
+        <v>5283</v>
+      </c>
+      <c r="B2737" t="s">
+        <v>5509</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:2">
+      <c r="A2738" t="s">
+        <v>5284</v>
+      </c>
+      <c r="B2738" t="s">
+        <v>5510</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:2">
+      <c r="A2739" t="s">
+        <v>5285</v>
+      </c>
+      <c r="B2739" t="s">
+        <v>5511</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:2">
+      <c r="A2740" t="s">
+        <v>5286</v>
+      </c>
+      <c r="B2740" t="s">
+        <v>5512</v>
+      </c>
+    </row>
+    <row r="2741" spans="1:2">
+      <c r="A2741" t="s">
+        <v>5287</v>
+      </c>
+      <c r="B2741" t="s">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:2">
+      <c r="A2742" t="s">
+        <v>5288</v>
+      </c>
+      <c r="B2742" t="s">
+        <v>5514</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:2">
+      <c r="A2743" t="s">
+        <v>5289</v>
+      </c>
+      <c r="B2743" t="s">
+        <v>5515</v>
+      </c>
+    </row>
+    <row r="2744" spans="1:2">
+      <c r="A2744" t="s">
+        <v>5290</v>
+      </c>
+      <c r="B2744" t="s">
+        <v>5516</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:2">
+      <c r="A2745" t="s">
+        <v>5291</v>
+      </c>
+      <c r="B2745" t="s">
+        <v>5517</v>
+      </c>
+    </row>
+    <row r="2746" spans="1:2">
+      <c r="A2746" t="s">
+        <v>5292</v>
+      </c>
+      <c r="B2746" t="s">
+        <v>5518</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:2">
+      <c r="A2747" t="s">
+        <v>5293</v>
+      </c>
+      <c r="B2747" t="s">
+        <v>5519</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:2">
+      <c r="A2748" t="s">
+        <v>5294</v>
+      </c>
+      <c r="B2748" t="s">
+        <v>5261</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:2">
+      <c r="A2749" t="s">
+        <v>5295</v>
+      </c>
+      <c r="B2749" t="s">
+        <v>5520</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:2">
+      <c r="A2750" t="s">
+        <v>5296</v>
+      </c>
+      <c r="B2750" t="s">
+        <v>5521</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:2">
+      <c r="A2751" t="s">
+        <v>5297</v>
+      </c>
+      <c r="B2751" t="s">
+        <v>5522</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:2">
+      <c r="A2752" t="s">
+        <v>5298</v>
+      </c>
+      <c r="B2752" t="s">
+        <v>5523</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:2">
+      <c r="A2753" t="s">
+        <v>5299</v>
+      </c>
+      <c r="B2753" t="s">
+        <v>5524</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:2">
+      <c r="A2754" t="s">
+        <v>5300</v>
+      </c>
+      <c r="B2754" s="1" t="s">
+        <v>5525</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:2">
+      <c r="A2755" t="s">
+        <v>5301</v>
+      </c>
+      <c r="B2755" s="1" t="s">
+        <v>5526</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:2">
+      <c r="A2756" t="s">
+        <v>5302</v>
+      </c>
+      <c r="B2756" t="s">
+        <v>5527</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:2">
+      <c r="A2757" t="s">
+        <v>5303</v>
+      </c>
+      <c r="B2757" t="s">
+        <v>5528</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:2">
+      <c r="A2758" t="s">
+        <v>5304</v>
+      </c>
+      <c r="B2758" t="s">
+        <v>5528</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:2">
+      <c r="A2759" t="s">
+        <v>5305</v>
+      </c>
+      <c r="B2759" t="s">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:2">
+      <c r="A2760" t="s">
+        <v>5306</v>
+      </c>
+      <c r="B2760" t="s">
+        <v>5307</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:2">
+      <c r="A2761" t="s">
+        <v>5308</v>
+      </c>
+      <c r="B2761" t="s">
+        <v>5529</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:2">
+      <c r="A2762" t="s">
+        <v>5309</v>
+      </c>
+      <c r="B2762" t="s">
+        <v>5530</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:2">
+      <c r="A2763" t="s">
+        <v>5310</v>
+      </c>
+      <c r="B2763" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:2">
+      <c r="A2764" t="s">
+        <v>5311</v>
+      </c>
+      <c r="B2764" t="s">
+        <v>5531</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:2">
+      <c r="A2765" t="s">
+        <v>5312</v>
+      </c>
+      <c r="B2765" t="s">
+        <v>5532</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:2">
+      <c r="A2766" t="s">
+        <v>5313</v>
+      </c>
+      <c r="B2766" t="s">
+        <v>5533</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:2">
+      <c r="A2767" t="s">
+        <v>5314</v>
+      </c>
+      <c r="B2767" t="s">
+        <v>5315</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:2">
+      <c r="A2768" t="s">
+        <v>5316</v>
+      </c>
+      <c r="B2768" t="s">
+        <v>5534</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:2">
+      <c r="A2769" t="s">
+        <v>5317</v>
+      </c>
+      <c r="B2769" t="s">
+        <v>5535</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:2">
+      <c r="A2770" t="s">
+        <v>5318</v>
+      </c>
+      <c r="B2770" t="s">
+        <v>5536</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:2">
+      <c r="A2771" t="s">
+        <v>5319</v>
+      </c>
+      <c r="B2771" t="s">
+        <v>5537</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:2">
+      <c r="A2772" t="s">
+        <v>5320</v>
+      </c>
+      <c r="B2772" t="s">
+        <v>5538</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:2">
+      <c r="A2773" t="s">
+        <v>5321</v>
+      </c>
+      <c r="B2773" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:2">
+      <c r="A2774" t="s">
+        <v>5322</v>
+      </c>
+      <c r="B2774" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:2">
+      <c r="A2775" t="s">
+        <v>5323</v>
+      </c>
+      <c r="B2775" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:2">
+      <c r="A2776" t="s">
+        <v>5324</v>
+      </c>
+      <c r="B2776" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:2">
+      <c r="A2777" t="s">
+        <v>5325</v>
+      </c>
+      <c r="B2777" t="s">
+        <v>5539</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:2">
+      <c r="A2778" t="s">
+        <v>5326</v>
+      </c>
+      <c r="B2778" t="s">
+        <v>5540</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:2">
+      <c r="A2779" t="s">
+        <v>5327</v>
+      </c>
+      <c r="B2779" t="s">
+        <v>5541</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:2">
+      <c r="A2780" t="s">
+        <v>5328</v>
+      </c>
+      <c r="B2780" t="s">
+        <v>5542</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:2">
+      <c r="A2781" t="s">
+        <v>5329</v>
+      </c>
+      <c r="B2781" t="s">
+        <v>5543</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:2">
+      <c r="A2782" t="s">
+        <v>5330</v>
+      </c>
+      <c r="B2782" t="s">
+        <v>5664</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:2">
+      <c r="A2783" t="s">
+        <v>5331</v>
+      </c>
+      <c r="B2783" t="s">
+        <v>5544</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:2">
+      <c r="A2784" t="s">
+        <v>5332</v>
+      </c>
+      <c r="B2784" t="s">
+        <v>5545</v>
+      </c>
+    </row>
+    <row r="2785" spans="1:2">
+      <c r="A2785" t="s">
+        <v>5333</v>
+      </c>
+      <c r="B2785" t="s">
+        <v>5546</v>
+      </c>
+    </row>
+    <row r="2786" spans="1:2">
+      <c r="A2786" t="s">
+        <v>5334</v>
+      </c>
+      <c r="B2786" t="s">
+        <v>5547</v>
+      </c>
+    </row>
+    <row r="2787" spans="1:2">
+      <c r="A2787" t="s">
+        <v>5335</v>
+      </c>
+      <c r="B2787" t="s">
+        <v>5548</v>
+      </c>
+    </row>
+    <row r="2788" spans="1:2">
+      <c r="A2788" t="s">
+        <v>5336</v>
+      </c>
+      <c r="B2788" t="s">
+        <v>5549</v>
+      </c>
+    </row>
+    <row r="2789" spans="1:2">
+      <c r="A2789" t="s">
+        <v>5337</v>
+      </c>
+      <c r="B2789" t="s">
+        <v>5550</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:2">
+      <c r="A2790" t="s">
+        <v>5338</v>
+      </c>
+      <c r="B2790" t="s">
+        <v>5551</v>
+      </c>
+    </row>
+    <row r="2791" spans="1:2">
+      <c r="A2791" t="s">
+        <v>5339</v>
+      </c>
+      <c r="B2791" t="s">
+        <v>5552</v>
+      </c>
+    </row>
+    <row r="2792" spans="1:2">
+      <c r="A2792" t="s">
+        <v>5340</v>
+      </c>
+      <c r="B2792" t="s">
+        <v>5553</v>
+      </c>
+    </row>
+    <row r="2793" spans="1:2">
+      <c r="A2793" t="s">
+        <v>5341</v>
+      </c>
+      <c r="B2793" t="s">
+        <v>5554</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:2">
+      <c r="A2794" t="s">
+        <v>5342</v>
+      </c>
+      <c r="B2794" t="s">
+        <v>5555</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:2">
+      <c r="A2795" t="s">
+        <v>5343</v>
+      </c>
+      <c r="B2795" t="s">
+        <v>5556</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:2">
+      <c r="A2796" t="s">
+        <v>5344</v>
+      </c>
+      <c r="B2796" t="s">
+        <v>5257</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:2">
+      <c r="A2797" t="s">
+        <v>5345</v>
+      </c>
+      <c r="B2797" t="s">
+        <v>5557</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:2">
+      <c r="A2798" t="s">
+        <v>5346</v>
+      </c>
+      <c r="B2798" t="s">
+        <v>5558</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:2">
+      <c r="A2799" t="s">
+        <v>5347</v>
+      </c>
+      <c r="B2799" t="s">
+        <v>5559</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:2">
+      <c r="A2800" t="s">
+        <v>5348</v>
+      </c>
+      <c r="B2800" t="s">
+        <v>5560</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:2">
+      <c r="A2801" t="s">
+        <v>5349</v>
+      </c>
+      <c r="B2801" t="s">
+        <v>5561</v>
+      </c>
+    </row>
+    <row r="2802" spans="1:2">
+      <c r="A2802" t="s">
+        <v>5350</v>
+      </c>
+      <c r="B2802" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="2803" spans="1:2">
+      <c r="A2803" t="s">
+        <v>5351</v>
+      </c>
+      <c r="B2803" t="s">
+        <v>5562</v>
+      </c>
+    </row>
+    <row r="2804" spans="1:2">
+      <c r="A2804" t="s">
+        <v>5352</v>
+      </c>
+      <c r="B2804" t="s">
+        <v>5563</v>
+      </c>
+    </row>
+    <row r="2805" spans="1:2">
+      <c r="A2805" t="s">
+        <v>5353</v>
+      </c>
+      <c r="B2805" t="s">
+        <v>5564</v>
+      </c>
+    </row>
+    <row r="2806" spans="1:2">
+      <c r="A2806" t="s">
+        <v>5354</v>
+      </c>
+      <c r="B2806" t="s">
+        <v>5565</v>
+      </c>
+    </row>
+    <row r="2807" spans="1:2">
+      <c r="A2807" t="s">
+        <v>5355</v>
+      </c>
+      <c r="B2807" t="s">
+        <v>5566</v>
+      </c>
+    </row>
+    <row r="2808" spans="1:2">
+      <c r="A2808" t="s">
+        <v>5356</v>
+      </c>
+      <c r="B2808" t="s">
+        <v>5567</v>
+      </c>
+    </row>
+    <row r="2809" spans="1:2">
+      <c r="A2809" t="s">
+        <v>5357</v>
+      </c>
+      <c r="B2809" t="s">
+        <v>5568</v>
+      </c>
+    </row>
+    <row r="2810" spans="1:2">
+      <c r="A2810" t="s">
+        <v>5358</v>
+      </c>
+      <c r="B2810" t="s">
+        <v>5569</v>
+      </c>
+    </row>
+    <row r="2811" spans="1:2">
+      <c r="A2811" t="s">
+        <v>5359</v>
+      </c>
+      <c r="B2811" t="s">
+        <v>5570</v>
+      </c>
+    </row>
+    <row r="2812" spans="1:2">
+      <c r="A2812" t="s">
+        <v>5360</v>
+      </c>
+      <c r="B2812" t="s">
+        <v>5571</v>
+      </c>
+    </row>
+    <row r="2813" spans="1:2">
+      <c r="A2813" t="s">
+        <v>5361</v>
+      </c>
+      <c r="B2813" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="2814" spans="1:2">
+      <c r="A2814" t="s">
+        <v>5362</v>
+      </c>
+      <c r="B2814" t="s">
+        <v>4172</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:2">
+      <c r="A2815" t="s">
+        <v>5363</v>
+      </c>
+      <c r="B2815" t="s">
+        <v>5572</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:2">
+      <c r="A2816" t="s">
+        <v>5364</v>
+      </c>
+      <c r="B2816" t="s">
+        <v>5573</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:2">
+      <c r="A2817" t="s">
+        <v>5365</v>
+      </c>
+      <c r="B2817" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:2">
+      <c r="A2818" t="s">
+        <v>5366</v>
+      </c>
+      <c r="B2818" t="s">
+        <v>5574</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:2">
+      <c r="A2819" t="s">
+        <v>5367</v>
+      </c>
+      <c r="B2819" t="s">
+        <v>5575</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:2">
+      <c r="A2820" t="s">
+        <v>5368</v>
+      </c>
+      <c r="B2820" t="s">
+        <v>5576</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:2">
+      <c r="A2821" t="s">
+        <v>5369</v>
+      </c>
+      <c r="B2821" t="s">
+        <v>5577</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:2">
+      <c r="A2822" t="s">
+        <v>5370</v>
+      </c>
+      <c r="B2822" t="s">
+        <v>5578</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:2">
+      <c r="A2823" t="s">
+        <v>5371</v>
+      </c>
+      <c r="B2823" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:2">
+      <c r="A2824" t="s">
+        <v>5372</v>
+      </c>
+      <c r="B2824" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:2">
+      <c r="A2825" t="s">
+        <v>5373</v>
+      </c>
+      <c r="B2825" t="s">
+        <v>5581</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:2">
+      <c r="A2826" t="s">
+        <v>5374</v>
+      </c>
+      <c r="B2826" t="s">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:2">
+      <c r="A2827" t="s">
+        <v>5375</v>
+      </c>
+      <c r="B2827" t="s">
+        <v>5582</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:2">
+      <c r="A2828" t="s">
+        <v>5376</v>
+      </c>
+      <c r="B2828" t="s">
+        <v>5583</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:2">
+      <c r="A2829" t="s">
+        <v>5377</v>
+      </c>
+      <c r="B2829" t="s">
+        <v>4721</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:2">
+      <c r="A2830" t="s">
+        <v>5378</v>
+      </c>
+      <c r="B2830" t="s">
+        <v>5584</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:2">
+      <c r="A2831" t="s">
+        <v>5379</v>
+      </c>
+      <c r="B2831" t="s">
+        <v>5585</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:2">
+      <c r="A2832" t="s">
+        <v>5380</v>
+      </c>
+      <c r="B2832" t="s">
+        <v>5586</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:2">
+      <c r="A2833" t="s">
+        <v>5381</v>
+      </c>
+      <c r="B2833" t="s">
+        <v>5587</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:2">
+      <c r="A2834" t="s">
+        <v>5382</v>
+      </c>
+      <c r="B2834" t="s">
+        <v>5588</v>
+      </c>
+    </row>
+    <row r="2835" spans="1:2">
+      <c r="A2835" t="s">
+        <v>5383</v>
+      </c>
+      <c r="B2835" t="s">
+        <v>5589</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:2">
+      <c r="A2836" t="s">
+        <v>5384</v>
+      </c>
+      <c r="B2836" t="s">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="2837" spans="1:2">
+      <c r="A2837" t="s">
+        <v>5385</v>
+      </c>
+      <c r="B2837" t="s">
+        <v>5591</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:2">
+      <c r="A2838" t="s">
+        <v>5386</v>
+      </c>
+      <c r="B2838" t="s">
+        <v>5592</v>
+      </c>
+    </row>
+    <row r="2839" spans="1:2">
+      <c r="A2839" t="s">
+        <v>5387</v>
+      </c>
+      <c r="B2839" t="s">
+        <v>5593</v>
+      </c>
+    </row>
+    <row r="2840" spans="1:2">
+      <c r="A2840" t="s">
+        <v>5388</v>
+      </c>
+      <c r="B2840" t="s">
+        <v>5594</v>
+      </c>
+    </row>
+    <row r="2841" spans="1:2">
+      <c r="A2841" t="s">
+        <v>5389</v>
+      </c>
+      <c r="B2841" t="s">
+        <v>5595</v>
+      </c>
+    </row>
+    <row r="2842" spans="1:2">
+      <c r="A2842" t="s">
+        <v>5390</v>
+      </c>
+      <c r="B2842" t="s">
+        <v>5596</v>
+      </c>
+    </row>
+    <row r="2843" spans="1:2">
+      <c r="A2843" t="s">
+        <v>5391</v>
+      </c>
+      <c r="B2843" t="s">
+        <v>5597</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:2">
+      <c r="A2844" t="s">
+        <v>5392</v>
+      </c>
+      <c r="B2844" t="s">
+        <v>5598</v>
+      </c>
+    </row>
+    <row r="2845" spans="1:2">
+      <c r="A2845" t="s">
+        <v>5393</v>
+      </c>
+      <c r="B2845" t="s">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="2846" spans="1:2">
+      <c r="A2846" t="s">
+        <v>5394</v>
+      </c>
+      <c r="B2846" t="s">
+        <v>5599</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:2">
+      <c r="A2847" t="s">
+        <v>5395</v>
+      </c>
+      <c r="B2847" t="s">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="2848" spans="1:2">
+      <c r="A2848" t="s">
+        <v>5396</v>
+      </c>
+      <c r="B2848" t="s">
+        <v>5601</v>
+      </c>
+    </row>
+    <row r="2849" spans="1:2">
+      <c r="A2849" t="s">
+        <v>5397</v>
+      </c>
+      <c r="B2849" t="s">
+        <v>5602</v>
+      </c>
+    </row>
+    <row r="2850" spans="1:2">
+      <c r="A2850" t="s">
+        <v>5398</v>
+      </c>
+      <c r="B2850" t="s">
+        <v>5603</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:2">
+      <c r="A2851" t="s">
+        <v>5399</v>
+      </c>
+      <c r="B2851" t="s">
+        <v>5604</v>
+      </c>
+    </row>
+    <row r="2852" spans="1:2">
+      <c r="A2852" t="s">
+        <v>5400</v>
+      </c>
+      <c r="B2852" t="s">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="2853" spans="1:2">
+      <c r="A2853" t="s">
+        <v>5401</v>
+      </c>
+      <c r="B2853" t="s">
+        <v>5606</v>
+      </c>
+    </row>
+    <row r="2854" spans="1:2">
+      <c r="A2854" t="s">
+        <v>5402</v>
+      </c>
+      <c r="B2854" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="2855" spans="1:2">
+      <c r="A2855" t="s">
+        <v>5403</v>
+      </c>
+      <c r="B2855" t="s">
+        <v>5608</v>
+      </c>
+    </row>
+    <row r="2856" spans="1:2">
+      <c r="A2856" t="s">
+        <v>5404</v>
+      </c>
+      <c r="B2856" t="s">
+        <v>5609</v>
+      </c>
+    </row>
+    <row r="2857" spans="1:2">
+      <c r="A2857" t="s">
+        <v>5405</v>
+      </c>
+      <c r="B2857" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="2858" spans="1:2">
+      <c r="A2858" t="s">
+        <v>5407</v>
+      </c>
+      <c r="B2858" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="2859" spans="1:2">
+      <c r="A2859" t="s">
+        <v>5408</v>
+      </c>
+      <c r="B2859" t="s">
+        <v>5611</v>
+      </c>
+    </row>
+    <row r="2860" spans="1:2">
+      <c r="A2860" t="s">
+        <v>5409</v>
+      </c>
+      <c r="B2860" t="s">
+        <v>5612</v>
+      </c>
+    </row>
+    <row r="2861" spans="1:2">
+      <c r="A2861" t="s">
+        <v>5410</v>
+      </c>
+      <c r="B2861" t="s">
+        <v>5613</v>
+      </c>
+    </row>
+    <row r="2862" spans="1:2">
+      <c r="A2862" t="s">
+        <v>5411</v>
+      </c>
+      <c r="B2862" t="s">
+        <v>5614</v>
+      </c>
+    </row>
+    <row r="2863" spans="1:2">
+      <c r="A2863" t="s">
+        <v>5412</v>
+      </c>
+      <c r="B2863" t="s">
+        <v>5615</v>
+      </c>
+    </row>
+    <row r="2864" spans="1:2">
+      <c r="A2864" t="s">
+        <v>5413</v>
+      </c>
+      <c r="B2864" t="s">
+        <v>5616</v>
+      </c>
+    </row>
+    <row r="2865" spans="1:2">
+      <c r="A2865" t="s">
+        <v>5414</v>
+      </c>
+      <c r="B2865" t="s">
+        <v>5617</v>
+      </c>
+    </row>
+    <row r="2866" spans="1:2">
+      <c r="A2866" t="s">
+        <v>5415</v>
+      </c>
+      <c r="B2866" t="s">
+        <v>5618</v>
+      </c>
+    </row>
+    <row r="2867" spans="1:2">
+      <c r="A2867" t="s">
+        <v>5416</v>
+      </c>
+      <c r="B2867" t="s">
+        <v>5619</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:2">
+      <c r="A2868" t="s">
+        <v>5417</v>
+      </c>
+      <c r="B2868" t="s">
+        <v>5620</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:2">
+      <c r="A2869" t="s">
+        <v>5418</v>
+      </c>
+      <c r="B2869" t="s">
+        <v>5621</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:2">
+      <c r="A2870" t="s">
+        <v>5419</v>
+      </c>
+      <c r="B2870" t="s">
+        <v>5622</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:2">
+      <c r="A2871" t="s">
+        <v>5420</v>
+      </c>
+      <c r="B2871" t="s">
+        <v>5623</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:2">
+      <c r="A2872" t="s">
+        <v>5421</v>
+      </c>
+      <c r="B2872" t="s">
+        <v>5624</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:2">
+      <c r="A2873" t="s">
+        <v>5422</v>
+      </c>
+      <c r="B2873" t="s">
+        <v>5138</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:2">
+      <c r="A2874" t="s">
+        <v>5423</v>
+      </c>
+      <c r="B2874" t="s">
+        <v>5625</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:2">
+      <c r="A2875" t="s">
+        <v>5424</v>
+      </c>
+      <c r="B2875" t="s">
+        <v>5626</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:2">
+      <c r="A2876" t="s">
+        <v>5425</v>
+      </c>
+      <c r="B2876" t="s">
+        <v>5627</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:2">
+      <c r="A2877" t="s">
+        <v>5426</v>
+      </c>
+      <c r="B2877" t="s">
+        <v>5628</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:2">
+      <c r="A2878" t="s">
+        <v>5427</v>
+      </c>
+      <c r="B2878" t="s">
+        <v>5629</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:2">
+      <c r="A2879" t="s">
+        <v>5428</v>
+      </c>
+      <c r="B2879" t="s">
+        <v>5630</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:2">
+      <c r="A2880" t="s">
+        <v>5429</v>
+      </c>
+      <c r="B2880" t="s">
+        <v>5631</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:2">
+      <c r="A2881" t="s">
+        <v>5430</v>
+      </c>
+      <c r="B2881" t="s">
+        <v>5632</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:2">
+      <c r="A2882" t="s">
+        <v>5431</v>
+      </c>
+      <c r="B2882" t="s">
+        <v>5633</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:2">
+      <c r="A2883" t="s">
+        <v>5432</v>
+      </c>
+      <c r="B2883" t="s">
+        <v>5634</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:2">
+      <c r="A2884" t="s">
+        <v>5433</v>
+      </c>
+      <c r="B2884" t="s">
+        <v>5635</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:2">
+      <c r="A2885" t="s">
+        <v>5434</v>
+      </c>
+      <c r="B2885" t="s">
+        <v>5636</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:2">
+      <c r="A2886" t="s">
+        <v>5435</v>
+      </c>
+      <c r="B2886" t="s">
+        <v>5637</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:2">
+      <c r="A2887" t="s">
+        <v>5436</v>
+      </c>
+      <c r="B2887" t="s">
+        <v>5638</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:2">
+      <c r="A2888" t="s">
+        <v>5437</v>
+      </c>
+      <c r="B2888" t="s">
+        <v>5639</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:2">
+      <c r="A2889" t="s">
+        <v>5438</v>
+      </c>
+      <c r="B2889" t="s">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:2">
+      <c r="A2890" t="s">
+        <v>5439</v>
+      </c>
+      <c r="B2890" t="s">
+        <v>5641</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:2">
+      <c r="A2891" t="s">
+        <v>5440</v>
+      </c>
+      <c r="B2891" t="s">
+        <v>5642</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:2">
+      <c r="A2892" t="s">
+        <v>5441</v>
+      </c>
+      <c r="B2892" t="s">
+        <v>5643</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:2">
+      <c r="A2893" t="s">
+        <v>5442</v>
+      </c>
+      <c r="B2893" t="s">
+        <v>5443</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:2">
+      <c r="A2894" t="s">
+        <v>5444</v>
+      </c>
+      <c r="B2894" t="s">
+        <v>5644</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:2">
+      <c r="A2895" t="s">
+        <v>5445</v>
+      </c>
+      <c r="B2895" t="s">
+        <v>5645</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:2">
+      <c r="A2896" t="s">
+        <v>5446</v>
+      </c>
+      <c r="B2896" t="s">
+        <v>5646</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:2">
+      <c r="A2897" t="s">
+        <v>5447</v>
+      </c>
+      <c r="B2897" t="s">
+        <v>5647</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:2">
+      <c r="A2898" t="s">
+        <v>5448</v>
+      </c>
+      <c r="B2898" t="s">
+        <v>5449</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:2">
+      <c r="A2899" t="s">
+        <v>5450</v>
+      </c>
+      <c r="B2899" t="s">
+        <v>5648</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:2">
+      <c r="A2900" t="s">
+        <v>5451</v>
+      </c>
+      <c r="B2900" t="s">
+        <v>5649</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:2">
+      <c r="A2901" t="s">
+        <v>5452</v>
+      </c>
+      <c r="B2901" t="s">
+        <v>5650</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:2">
+      <c r="A2902" t="s">
+        <v>5453</v>
+      </c>
+      <c r="B2902" t="s">
+        <v>5651</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:2">
+      <c r="A2903" t="s">
+        <v>5454</v>
+      </c>
+      <c r="B2903" t="s">
+        <v>5527</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:2">
+      <c r="A2904" t="s">
+        <v>5455</v>
+      </c>
+      <c r="B2904" t="s">
+        <v>5652</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:2">
+      <c r="A2905" t="s">
+        <v>5456</v>
+      </c>
+      <c r="B2905" t="s">
+        <v>5653</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:2">
+      <c r="A2906" t="s">
+        <v>5457</v>
+      </c>
+      <c r="B2906" t="s">
+        <v>5261</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:2">
+      <c r="A2907" t="s">
+        <v>5458</v>
+      </c>
+      <c r="B2907" t="s">
+        <v>5459</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:2">
+      <c r="A2908" t="s">
+        <v>5460</v>
+      </c>
+      <c r="B2908" t="s">
+        <v>4115</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:2">
+      <c r="A2909" t="s">
+        <v>5461</v>
+      </c>
+      <c r="B2909" t="s">
+        <v>5654</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:2">
+      <c r="A2910" t="s">
+        <v>5462</v>
+      </c>
+      <c r="B2910" t="s">
+        <v>5655</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:2">
+      <c r="A2911" t="s">
+        <v>5463</v>
+      </c>
+      <c r="B2911" t="s">
+        <v>5656</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:2">
+      <c r="A2912" t="s">
+        <v>5464</v>
+      </c>
+      <c r="B2912" t="s">
+        <v>5657</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:2">
+      <c r="A2913" t="s">
+        <v>5465</v>
+      </c>
+      <c r="B2913" t="s">
+        <v>5541</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:2">
+      <c r="A2914" t="s">
+        <v>5466</v>
+      </c>
+      <c r="B2914" t="s">
+        <v>5658</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:2">
+      <c r="A2915" t="s">
+        <v>5467</v>
+      </c>
+      <c r="B2915" t="s">
+        <v>5659</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:2">
+      <c r="A2916" t="s">
+        <v>5468</v>
+      </c>
+      <c r="B2916" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:2">
+      <c r="A2917" t="s">
+        <v>5469</v>
+      </c>
+      <c r="B2917" t="s">
+        <v>5660</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:2">
+      <c r="A2918" t="s">
+        <v>5470</v>
+      </c>
+      <c r="B2918" t="s">
+        <v>5520</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:2">
+      <c r="A2919" t="s">
+        <v>5471</v>
+      </c>
+      <c r="B2919" t="s">
+        <v>4534</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:2">
+      <c r="A2920" t="s">
+        <v>5472</v>
+      </c>
+      <c r="B2920" t="s">
+        <v>5473</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:2">
+      <c r="A2921" t="s">
+        <v>5474</v>
+      </c>
+      <c r="B2921" t="s">
+        <v>5661</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:2">
+      <c r="A2922" t="s">
+        <v>5475</v>
+      </c>
+      <c r="B2922" t="s">
+        <v>5662</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:2">
+      <c r="A2923" t="s">
+        <v>5476</v>
+      </c>
+      <c r="B2923" t="s">
+        <v>5477</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:2">
+      <c r="A2924" t="s">
+        <v>5478</v>
+      </c>
+      <c r="B2924" t="s">
+        <v>5479</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:2">
+      <c r="A2925" t="s">
+        <v>5480</v>
+      </c>
+      <c r="B2925" t="s">
+        <v>5481</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:2">
+      <c r="A2926" t="s">
+        <v>5482</v>
+      </c>
+      <c r="B2926" t="s">
+        <v>5663</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:2">
+      <c r="A2927" t="s">
+        <v>5483</v>
+      </c>
+      <c r="B2927" t="s">
+        <v>5484</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:2">
+      <c r="A2928" t="s">
+        <v>5485</v>
+      </c>
+      <c r="B2928" t="s">
+        <v>5486</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:2">
+      <c r="A2929" t="s">
+        <v>5487</v>
+      </c>
+      <c r="B2929" t="s">
+        <v>5488</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
